--- a/www/IndicatorsPerCountry/Greece_GDPperCapita_TerritorialRef_1946_2012_CCode_300.xlsx
+++ b/www/IndicatorsPerCountry/Greece_GDPperCapita_TerritorialRef_1946_2012_CCode_300.xlsx
@@ -585,13 +585,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Greece_GDPperCapita_TerritorialRef_1946_2012_CCode_300.xlsx
+++ b/www/IndicatorsPerCountry/Greece_GDPperCapita_TerritorialRef_1946_2012_CCode_300.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="199">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,526 +36,544 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>1341</t>
-  </si>
-  <si>
-    <t>1297</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1267</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>1203</t>
-  </si>
-  <si>
-    <t>1229</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>968</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>1143</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>1259</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>1429</t>
-  </si>
-  <si>
-    <t>1378</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>1419</t>
-  </si>
-  <si>
-    <t>1432</t>
-  </si>
-  <si>
-    <t>1279</t>
-  </si>
-  <si>
-    <t>1163</t>
-  </si>
-  <si>
-    <t>1243</t>
-  </si>
-  <si>
-    <t>1186</t>
-  </si>
-  <si>
-    <t>1253</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>1166</t>
-  </si>
-  <si>
-    <t>1133</t>
-  </si>
-  <si>
-    <t>1335</t>
-  </si>
-  <si>
-    <t>1263</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>1245</t>
-  </si>
-  <si>
-    <t>1294</t>
-  </si>
-  <si>
-    <t>1272</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>1316</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>1475</t>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>2138</t>
+  </si>
+  <si>
+    <t>2067</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1653</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>1554</t>
   </si>
   <si>
     <t>1591</t>
   </si>
   <si>
-    <t>1522</t>
-  </si>
-  <si>
-    <t>1575</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>1288</t>
-  </si>
-  <si>
-    <t>1371</t>
-  </si>
-  <si>
-    <t>1401</t>
-  </si>
-  <si>
-    <t>1348</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>1386</t>
-  </si>
-  <si>
-    <t>1237</t>
-  </si>
-  <si>
-    <t>1520</t>
-  </si>
-  <si>
-    <t>1485</t>
-  </si>
-  <si>
-    <t>1567</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1587</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1632</t>
-  </si>
-  <si>
-    <t>1626</t>
-  </si>
-  <si>
-    <t>2027</t>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>1822</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>2278</t>
+  </si>
+  <si>
+    <t>2197</t>
+  </si>
+  <si>
+    <t>2161</t>
+  </si>
+  <si>
+    <t>2125</t>
+  </si>
+  <si>
+    <t>2262</t>
+  </si>
+  <si>
+    <t>2283</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1859</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>2091</t>
+  </si>
+  <si>
+    <t>2351</t>
+  </si>
+  <si>
+    <t>2536</t>
+  </si>
+  <si>
+    <t>2426</t>
+  </si>
+  <si>
+    <t>2511</t>
+  </si>
+  <si>
+    <t>2566</t>
+  </si>
+  <si>
+    <t>2391</t>
+  </si>
+  <si>
+    <t>2257</t>
   </si>
   <si>
     <t>1967</t>
   </si>
   <si>
-    <t>1177</t>
-  </si>
-  <si>
-    <t>1502</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t>1433</t>
-  </si>
-  <si>
-    <t>1918</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>2057</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>2180</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>2234</t>
-  </si>
-  <si>
-    <t>2342</t>
-  </si>
-  <si>
-    <t>2258</t>
-  </si>
-  <si>
-    <t>2134</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>2395</t>
-  </si>
-  <si>
-    <t>2418</t>
-  </si>
-  <si>
-    <t>2480</t>
-  </si>
-  <si>
-    <t>2455</t>
-  </si>
-  <si>
-    <t>2769</t>
-  </si>
-  <si>
-    <t>2677</t>
-  </si>
-  <si>
-    <t>2638</t>
-  </si>
-  <si>
-    <t>2223</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>1579</t>
-  </si>
-  <si>
-    <t>1327</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>1763</t>
-  </si>
-  <si>
-    <t>1798</t>
-  </si>
-  <si>
-    <t>1869</t>
-  </si>
-  <si>
-    <t>1915</t>
-  </si>
-  <si>
-    <t>2062</t>
-  </si>
-  <si>
     <t>2053</t>
   </si>
   <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2358</t>
-  </si>
-  <si>
-    <t>2514</t>
-  </si>
-  <si>
-    <t>2706</t>
-  </si>
-  <si>
-    <t>2859</t>
-  </si>
-  <si>
-    <t>2963</t>
-  </si>
-  <si>
-    <t>3040</t>
-  </si>
-  <si>
-    <t>3146</t>
-  </si>
-  <si>
-    <t>3393</t>
-  </si>
-  <si>
-    <t>3499</t>
-  </si>
-  <si>
-    <t>3841</t>
-  </si>
-  <si>
-    <t>4141</t>
-  </si>
-  <si>
-    <t>4509</t>
-  </si>
-  <si>
-    <t>4749</t>
-  </si>
-  <si>
-    <t>4951</t>
-  </si>
-  <si>
-    <t>5266</t>
-  </si>
-  <si>
-    <t>5766</t>
-  </si>
-  <si>
-    <t>6211</t>
-  </si>
-  <si>
-    <t>6624</t>
-  </si>
-  <si>
-    <t>7400</t>
-  </si>
-  <si>
-    <t>7655</t>
-  </si>
-  <si>
-    <t>7350</t>
-  </si>
-  <si>
-    <t>7722</t>
-  </si>
-  <si>
-    <t>8105</t>
-  </si>
-  <si>
-    <t>8255</t>
-  </si>
-  <si>
-    <t>8695</t>
-  </si>
-  <si>
-    <t>8904</t>
-  </si>
-  <si>
-    <t>8971</t>
-  </si>
-  <si>
-    <t>8896</t>
-  </si>
-  <si>
-    <t>8879</t>
-  </si>
-  <si>
-    <t>8866</t>
-  </si>
-  <si>
-    <t>9067</t>
-  </si>
-  <si>
-    <t>9316</t>
-  </si>
-  <si>
-    <t>9440</t>
-  </si>
-  <si>
-    <t>9375</t>
-  </si>
-  <si>
-    <t>9784</t>
-  </si>
-  <si>
-    <t>10111</t>
-  </si>
-  <si>
-    <t>10015.4004107</t>
-  </si>
-  <si>
-    <t>10203.7103156</t>
-  </si>
-  <si>
-    <t>10200.9495004</t>
-  </si>
-  <si>
-    <t>9982.07839738</t>
-  </si>
-  <si>
-    <t>10136.0041343</t>
-  </si>
-  <si>
-    <t>10321.400328</t>
-  </si>
-  <si>
-    <t>10542.7724053</t>
-  </si>
-  <si>
-    <t>10902.4001249</t>
-  </si>
-  <si>
-    <t>11250.1627841</t>
-  </si>
-  <si>
-    <t>11616.4310627</t>
-  </si>
-  <si>
-    <t>12110.8455163</t>
-  </si>
-  <si>
-    <t>12592.4337902</t>
-  </si>
-  <si>
-    <t>12998.0969194</t>
-  </si>
-  <si>
-    <t>13742.0484757</t>
-  </si>
-  <si>
-    <t>14313.1787372</t>
-  </si>
-  <si>
-    <t>14610.9998266</t>
-  </si>
-  <si>
-    <t>15392.4435304</t>
-  </si>
-  <si>
-    <t>15826.6234148</t>
-  </si>
-  <si>
-    <t>15777.5100207</t>
-  </si>
-  <si>
-    <t>15243.9848269</t>
-  </si>
-  <si>
-    <t>14690.7331576</t>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>2233</t>
+  </si>
+  <si>
+    <t>2149</t>
+  </si>
+  <si>
+    <t>2359</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>2423</t>
+  </si>
+  <si>
+    <t>2367</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>2530</t>
+  </si>
+  <si>
+    <t>2565</t>
+  </si>
+  <si>
+    <t>2550</t>
+  </si>
+  <si>
+    <t>2601</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>3135</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>2394</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>3057</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>3169</t>
+  </si>
+  <si>
+    <t>3279</t>
+  </si>
+  <si>
+    <t>3411</t>
+  </si>
+  <si>
+    <t>3475</t>
+  </si>
+  <si>
+    <t>3539</t>
+  </si>
+  <si>
+    <t>3561</t>
+  </si>
+  <si>
+    <t>3733</t>
+  </si>
+  <si>
+    <t>3599</t>
+  </si>
+  <si>
+    <t>3402</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>3818</t>
+  </si>
+  <si>
+    <t>3854</t>
+  </si>
+  <si>
+    <t>3953</t>
+  </si>
+  <si>
+    <t>3913</t>
+  </si>
+  <si>
+    <t>4414</t>
+  </si>
+  <si>
+    <t>4267</t>
+  </si>
+  <si>
+    <t>4205</t>
+  </si>
+  <si>
+    <t>3543</t>
+  </si>
+  <si>
+    <t>2987</t>
+  </si>
+  <si>
+    <t>2517</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>2810</t>
+  </si>
+  <si>
+    <t>2866</t>
+  </si>
+  <si>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>3052</t>
+  </si>
+  <si>
+    <t>3287</t>
+  </si>
+  <si>
+    <t>3272</t>
+  </si>
+  <si>
+    <t>3681</t>
+  </si>
+  <si>
+    <t>3759</t>
+  </si>
+  <si>
+    <t>4007</t>
+  </si>
+  <si>
+    <t>4313</t>
+  </si>
+  <si>
+    <t>4557</t>
+  </si>
+  <si>
+    <t>4723</t>
+  </si>
+  <si>
+    <t>4846</t>
+  </si>
+  <si>
+    <t>5015</t>
+  </si>
+  <si>
+    <t>5408</t>
+  </si>
+  <si>
+    <t>5577</t>
+  </si>
+  <si>
+    <t>6122</t>
+  </si>
+  <si>
+    <t>6601</t>
+  </si>
+  <si>
+    <t>7187</t>
+  </si>
+  <si>
+    <t>7570</t>
+  </si>
+  <si>
+    <t>7892</t>
+  </si>
+  <si>
+    <t>8394</t>
+  </si>
+  <si>
+    <t>9191</t>
+  </si>
+  <si>
+    <t>9900</t>
+  </si>
+  <si>
+    <t>10559</t>
+  </si>
+  <si>
+    <t>11795</t>
+  </si>
+  <si>
+    <t>12202</t>
+  </si>
+  <si>
+    <t>11716</t>
+  </si>
+  <si>
+    <t>12309</t>
+  </si>
+  <si>
+    <t>12919</t>
+  </si>
+  <si>
+    <t>13158</t>
+  </si>
+  <si>
+    <t>13860</t>
+  </si>
+  <si>
+    <t>14193</t>
+  </si>
+  <si>
+    <t>14300</t>
+  </si>
+  <si>
+    <t>14180</t>
+  </si>
+  <si>
+    <t>14153</t>
+  </si>
+  <si>
+    <t>14132</t>
+  </si>
+  <si>
+    <t>14453</t>
+  </si>
+  <si>
+    <t>14850</t>
+  </si>
+  <si>
+    <t>15047</t>
+  </si>
+  <si>
+    <t>14944</t>
+  </si>
+  <si>
+    <t>15596</t>
+  </si>
+  <si>
+    <t>16117</t>
+  </si>
+  <si>
+    <t>15964</t>
+  </si>
+  <si>
+    <t>16409.6894138485</t>
+  </si>
+  <si>
+    <t>16545.9637660561</t>
+  </si>
+  <si>
+    <t>16331.314704389</t>
+  </si>
+  <si>
+    <t>16724.2880561885</t>
+  </si>
+  <si>
+    <t>17148.1971986388</t>
+  </si>
+  <si>
+    <t>17719.5573803883</t>
+  </si>
+  <si>
+    <t>18588.2954879532</t>
+  </si>
+  <si>
+    <t>19378.7099269518</t>
+  </si>
+  <si>
+    <t>20076.5593750824</t>
+  </si>
+  <si>
+    <t>20965.3318066981</t>
+  </si>
+  <si>
+    <t>21913.7976809227</t>
+  </si>
+  <si>
+    <t>22893.9591178651</t>
+  </si>
+  <si>
+    <t>24380.0663273618</t>
+  </si>
+  <si>
+    <t>25780.3850930784</t>
+  </si>
+  <si>
+    <t>26091.524171943</t>
+  </si>
+  <si>
+    <t>27731.110923369</t>
+  </si>
+  <si>
+    <t>28822.915641556</t>
+  </si>
+  <si>
+    <t>28907.9250256727</t>
+  </si>
+  <si>
+    <t>27839.8975169695</t>
+  </si>
+  <si>
+    <t>26517.465079651</t>
+  </si>
+  <si>
+    <t>24349</t>
+  </si>
+  <si>
+    <t>22693</t>
+  </si>
+  <si>
+    <t>22118</t>
+  </si>
+  <si>
+    <t>22344</t>
+  </si>
+  <si>
+    <t>22442</t>
+  </si>
+  <si>
+    <t>22574</t>
   </si>
   <si>
     <t>Description</t>
@@ -3685,6 +3703,108 @@
         <v>180</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3700,50 +3820,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
